--- a/Task 3/Scraped Data.xlsx
+++ b/Task 3/Scraped Data.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-02 02;02;17.803527" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-02 18;40;45.532197" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,24 +457,29 @@
           <t>Proposer</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Transaction Hashes</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://atomscan.com/blocks/1</t>
+          <t>https://atomscan.com/blocks/91</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12/11/2019, 21:41:34</t>
+          <t>12/11/2019, 22:13:44</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -484,67 +489,72 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7307AF7F400F3D9BC5113FA2E8FC3851713140F9037F21FFF64973DA5A5256B1</t>
+          <t>2950B7360BC4ADCF181BF068507B289B13D765E10C9985520FF646F29D04E9FF</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'DokiaCapital': 'https://atomscan.com/validators/cosmosvaloper14lultfckehtszvzw4ehu0apvsr77afvyju5zzy'}</t>
+          <t>{'Sikka': 'https://atomscan.com/validators/cosmosvaloper1ey69r37gfxvxg62sh4r0ktpuc46pzjrm873ae8'}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://atomscan.com/blocks/2</t>
+          <t>https://atomscan.com/blocks/92</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12/11/2019, 22:00:31</t>
+          <t>12/11/2019, 22:13:51</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8696E740680DB1FA6FA6F609B217C02B92070F8B4FD2C72E82B6FC99D63BF5B7</t>
+          <t>12038986D3F65E1508DF7D86E6290284B973BCF24A7F802C8BFF19554C0F8F9F</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'DokiaCapital': 'https://atomscan.com/validators/cosmosvaloper14lultfckehtszvzw4ehu0apvsr77afvyju5zzy'}</t>
+          <t>{'Binance Staking': 'https://atomscan.com/validators/cosmosvaloper156gqf9837u7d4c4678yt3rl4ls9c5vuursrrzf'}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{'BE62B6C0AB33B6CD251CCF6C76E433A813D858265F94506EFC57938B683030D3': 'https://atomscan.com/transactions/BE62B6C0AB33B6CD251CCF6C76E433A813D858265F94506EFC57938B683030D3'}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://atomscan.com/blocks/3</t>
+          <t>https://atomscan.com/blocks/93</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12/11/2019, 22:01:40</t>
+          <t>12/11/2019, 22:13:58</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -554,32 +564,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BFF3272C3138EE5E81670A46C19BDBCDE8EA94C2F6633DFAB3A7D785B2E7924B</t>
+          <t>E7B0061275D17E3F20E52CA91E8720F1A1748CE97ECC42440C19602A17DD2415</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'DokiaCapital': 'https://atomscan.com/validators/cosmosvaloper14lultfckehtszvzw4ehu0apvsr77afvyju5zzy'}</t>
+          <t>{'Delega Networks♾ ': 'https://atomscan.com/validators/cosmosvaloper1uutuwrwt3z2a5z8z3uasml3rftlpmu25aga5c6'}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://atomscan.com/blocks/4</t>
+          <t>https://atomscan.com/blocks/94</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12/11/2019, 22:01:48</t>
+          <t>12/11/2019, 22:14:05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>94</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -589,32 +599,32 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FC03C3E5633346D2D556120D886DF8EEB2F03DEBB90B487084177BAB35F05E81</t>
+          <t>5DF4F14E019849388F897E4B499941168EC25615F6A2391A6DD5418F1C28E132</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'Sikka': 'https://atomscan.com/validators/cosmosvaloper1ey69r37gfxvxg62sh4r0ktpuc46pzjrm873ae8'}</t>
+          <t>{'Cosmostation': 'https://atomscan.com/validators/cosmosvaloper1clpqr4nrk4khgkxj78fcwwh6dl3uw4epsluffn'}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://atomscan.com/blocks/5</t>
+          <t>https://atomscan.com/blocks/95</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12/11/2019, 22:02:00</t>
+          <t>12/11/2019, 22:14:12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -624,32 +634,32 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9D064228B9170C40C84C6F9C983B75D25574C6A68CCA67E727BCADAF2A93831A</t>
+          <t>F1DAAFA745FA1FA9C3885F89F1ED4EB506068283590A1C58BC1B012A5B339D2D</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'Sikka': 'https://atomscan.com/validators/cosmosvaloper1ey69r37gfxvxg62sh4r0ktpuc46pzjrm873ae8'}</t>
+          <t>{'Any Labs': 'https://atomscan.com/validators/cosmosvaloper1648ynlpdw7fqa2axt0w2yp3fk542junl7rsvq6'}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://atomscan.com/blocks/6</t>
+          <t>https://atomscan.com/blocks/96</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12/11/2019, 22:02:08</t>
+          <t>12/11/2019, 22:14:24</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -659,32 +669,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7350696B949191D06DAB0A59A6EB3D4C916F33D6FBFEB1996E2E1DEA6BF34E58</t>
+          <t>0367A26A8586CE0B1DF8D859E5EF9EAA64003397FC9808B4874DCB86BC680594</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'pe4x72': 'https://atomscan.com/validators/cosmosvaloper1rwh0cxa72d3yle3r4l8gd7vyphrmjy2kpe4x72'}</t>
+          <t>{'Any Labs': 'https://atomscan.com/validators/cosmosvaloper1648ynlpdw7fqa2axt0w2yp3fk542junl7rsvq6'}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://atomscan.com/blocks/7</t>
+          <t>https://atomscan.com/blocks/97</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12/11/2019, 22:02:15</t>
+          <t>12/11/2019, 22:14:31</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>97</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -694,67 +704,72 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2C657C709D1E4CAE2F58FBF8195CCEB39069AEB904D552820178686B785F7408</t>
+          <t>2389EECB75A1ECFCE9D8098C2D0F2DCE356BE7650C16908BD89E6ED4510AFC7E</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'Certus One': 'https://atomscan.com/validators/cosmosvaloper1qwl879nx9t6kef4supyazayf7vjhennyh568ys'}</t>
+          <t>{'Figment': 'https://atomscan.com/validators/cosmosvaloper1hjct6q7npsspsg3dgvzk3sdf89spmlpfdn6m9d'}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://atomscan.com/blocks/8</t>
+          <t>https://atomscan.com/blocks/98</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12/11/2019, 22:02:22</t>
+          <t>12/11/2019, 22:14:38</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>98</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2F5639C83603359B98C56FDC3F91680782EA5F96A2311E8616B432E45F314575</t>
+          <t>FD5AEADBE92082D11934FB12E5780F2A34E4ADF92D23270E390FBFAB81A40DB7</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'Cosmostation': 'https://atomscan.com/validators/cosmosvaloper1clpqr4nrk4khgkxj78fcwwh6dl3uw4epsluffn'}</t>
+          <t>{'pe4x72': 'https://atomscan.com/validators/cosmosvaloper1rwh0cxa72d3yle3r4l8gd7vyphrmjy2kpe4x72'}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{'7DCB49D5B4FAE87A5532741816E68EE4222C1DBD66326FBADA55268FA7E760E6': 'https://atomscan.com/transactions/7DCB49D5B4FAE87A5532741816E68EE4222C1DBD66326FBADA55268FA7E760E6'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://atomscan.com/blocks/9</t>
+          <t>https://atomscan.com/blocks/99</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12/11/2019, 22:02:29</t>
+          <t>12/11/2019, 22:14:50</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -764,32 +779,32 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1220E240A21438B6065C1A11D8F6E8756051AA9820F8438A25FC51DB5F0CA402</t>
+          <t>78D7217A265866B3907EE06378BF8DA94E30224AD5DF60C00DEAAB02B2310BC7</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'MultiChain Ventures': 'https://atomscan.com/validators/cosmosvaloper1vf44d85es37hwl9f4h9gv0e064m0lla60j9luj'}</t>
+          <t>{'pe4x72': 'https://atomscan.com/validators/cosmosvaloper1rwh0cxa72d3yle3r4l8gd7vyphrmjy2kpe4x72'}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://atomscan.com/blocks/10</t>
+          <t>https://atomscan.com/blocks/100</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12/11/2019, 22:02:36</t>
+          <t>12/11/2019, 22:14:57</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -799,12 +814,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>F5E07D627608D0CFDD991FCB376416219CE2D5476B0887F20BD7D22555AF82AA</t>
+          <t>1C5C701473CC4BD0DBE66559FF50A107C4028210ECAC21EAC02591FCB084C75C</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'iqlusion': 'https://atomscan.com/validators/cosmosvaloper1grgelyng2v6v3t8z87wu3sxgt9m5s03xfytvz7'}</t>
+          <t>{'Cephalopod Equipment': 'https://atomscan.com/validators/cosmosvaloper16k579jk6yt2cwmqx9dz5xvq9fug2tekvlu9qdv'}</t>
         </is>
       </c>
     </row>
